--- a/public/data/portfolio/portfolio.xlsx
+++ b/public/data/portfolio/portfolio.xlsx
@@ -609,12 +609,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Finally completed chess game to play locally. Try this out here: https://jasurgraduate.github.io/chess/</t>
+          <t>Finally completed chess game to play locally. Try this out here: https://uzChess.vercel.app</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/a/AVvXsEjtKFjW2CB7bQ7Jd5s_LqGg1g1upuVBLXxozwN5ECHbFCS6bdmOmuql8RSTcrldQP_FLOVgJ1MnwEtdxyyk8w9QzeXAg-SV25p2QED3Yg4-YUCjSVdYSkvhufOQ8fIELlbxp8bbo-itc96u9tDN5dwazwcEMNC5JlpSrc-86p7owJP_oJ9D3P0P4Xf92Gg</t>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEhBKl54c5hfCPv11-NQ9vAH6bt5CYqbTBKmIWCypW_2evRKtDGLNksCEGVYtvBoqCUK4oUMQHo0PKd89jOawDj5A7RE55HKjhbDXgm_UqQjHi8pDTHRc6NpIV6-UfrQRuT8Z4apXFa2rwipiAauVzuWzoXqurpBGmJwh4eN8pPLvmTcUem_9Bo6A0Ncdlo</t>
         </is>
       </c>
     </row>

--- a/public/data/portfolio/portfolio.xlsx
+++ b/public/data/portfolio/portfolio.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>I created a quiz of testing your Hangul knowledge. And in the end according to your result you can get a personal certificate like this. Give it a try! You will love it! | https://jasurgraduate.github.io/Hangul/</t>
+          <t>I created a quiz of testing your Hangul knowledge. And in the end according to your result you can get a personal certificate like this. Give it a try! You will love it! | https://jasurlive.github.io/Hangul/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -680,7 +680,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg5K2OMTFnxyqQZyad_adMoXysl85NsZnKH_-k0yIZFHWw9uvGlh7Ss-WpbM58XNw2NVMoytppUCjm7KD6ZFjtvtZ3CX2oEYwFEbXM07yYuOtxrSVoHVb6bvLXYBMTCsiHgDkpRrUF6wSvGOCDhMG6gV4uyumqzu1pltn8JrdgrsCCvs4nADX1Dvni62lg/s1919/Screenshot%202025-03-01%20174733.png</t>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEhRneIHityZCfdxYN2EabHWzPEHpiqWFw9UFIPEzeBZNwjGyDQK-M4bQ2ZMCA8SdgZ_k1UYS-eKWhrU3uF_V87SKRyqE7Fi-TCW11UoEfGRvH-zfygoCGuV5hCOMyMA9Ty-Xzj9AjW5C7_B255wIj_ZSHP52H9ExRvatwOquMS-B99GUUv7_0x5k9TJ8p8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-22 17:34:06</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>POS App for a local market in Daejeon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Point Of Sale (POS) app for the local store. Inventory control, calculations of income and outcome. Works with any inventory. The excel sheet needs to be modified accordingly before using it.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjA1FzCHoSKmitLjioCBqb4eMmq3MQAFdEnUhzNt5q6WthEYhnTavPmURhhQFcGI46EKgr9SokoE00hfF87GYdCmjUk3YZGgBMO6HW4V8t_tpgg2UHF0rZnVl8Df15AXWG7kZbBLCBQvlwbYBDHhZ3tPJDBGAWmwyVcI-UzfstOXxwSAb2UnIaet9xpYUQ/s1917/POS.png</t>
         </is>
       </c>
     </row>

--- a/public/data/portfolio/portfolio.xlsx
+++ b/public/data/portfolio/portfolio.xlsx
@@ -433,29 +433,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="90" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date &amp; Time</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Image Link</t>
         </is>
@@ -464,155 +459,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01 15:49:06</t>
+          <t>ABB 250 robot sealing simulation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Fully functional robot cell design using Robotstudio, IRB140 robot has been used to simulate and can be replaced by any robot type. 
+Click on the link below to see the simulation on youtube :) | https://youtu.be/ngYd8PNVj-g?feature=shared</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhVKcPFb5cVEnwkgzkPP86Jrphyniwyczus2M1yoUQ0dKQDTKjN3DMk386PYmkXVlfZI9mtJmtu1cr-ruWpzDZiecTWnkv6G5cO4a1J_HQQ1DMnzzELhVIDQtO0h-VryqaiOFO3mm04cdAycEh44ppozsUFqXhLcqiKsU1Os_tjaOPWM_0U_YWaDyuSxWk/s1920/image_2023-05-08_13-13-41.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wind pump in Creo Parametric 8.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully functional wind pump model in Creo Parametric 8.0 | https://www.youtube.com/watch?v=EGFMEjhhjHw</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://blogger.googleusercontent.com/img/a/AVvXsEiWOJriTzkTukOGDj7c-1K3Bl14ncoXz0kg5oQYkxhgnnQ4RKGzZ_bVxzquKt5GgmIXyt0AXqNruuvTSp5jXbTdyNUGEd-9sVjVmvlPqaj_UBU8iaMAFFn0lQzi0eCeqQaLH2Fn37XR6uqC-avTC98Z80Jv_DBKEKQCohgGf7CWnUzUL7SZwdzNB7zlLgc</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t xml:space="preserve">3D design of torch </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 3D torch with fully assembled view and moving parts, such as buttons and caps. See it on youtube :)
 https://youtu.be/Rx127FVZ9v0?feature=shared</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiG5qjU80mtd3vvcqMGgjd3jEOysTmpJUli4bPn1Jy5g_WMC9Uf4cGz35wwNtFhN_h3ImDrlUwicht7Zk_QDBOAZt48NSMnqtmluDm4pE7mqkvFA5iVWy0rl1yEYf1n4MRWZmFchX1YGwh4BBwJff2qqkxdDluJ1b1W4g6cbYP8DHm8UNoUKlhsT1Pl3Xc/s1920/torch.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-28 16:14:31</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3D printed chess piece</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Chess Knight was designed in Creo PTC and 3D printed using Ultimaker 3D printing machine.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEif9lkVFHyVvkJSZMLC_wdVPHJ3ddJNvmmfDGEYhr7oYxKwwl9zC_5ZsCVDcrZ8wnYYvKkfWwToTkKyBVxUoerft6EvDSFB-PbelxZr5AGXFllx7JSzrJ2kHECap3gR7cFDXXGclk8wsjdlRW4d1TrO9xiSOk2lpK2NS5S01-ZoEbkktV7h8jIcwEOdQe4/s1816/20230530_171758.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-02-28 16:17:31</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Floor Plan in AutoCAD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A single floor with the size 4x4m was designed in AutoCAD.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjUXCyEnubK5YAoi3afor-qm2pzC6y3PEGxG9nuk8Fl_AAIEMLX4n_nS6CnX0Ae1pSCatKgYH_lYUorR_FphZy02f6UfoGg9Kg__tQRe8WNhBGFQZqzP9iPnj6eo7OaGHCz8smlICJ4FKONt_N6WO2xsqgPQmLZ0HAgJdIN6br9iUUb9XhTyw6LwoK0ELc/s704/autocad.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01 16:24:32</t>
+          <t>The floor plan of my flat 🌱🪴</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABB 250 robot sealing simulation</t>
+          <t>The doors can be switched to left/right hand sides accordingly. It's cool, isn't it?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully functional robot cell design using Robotstudio, IRB140 robot has been used to simulate and can be replaced by any robot type. 
-Click on the link below to see the simulation on youtube :) | https://youtu.be/ngYd8PNVj-g?feature=shared</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhVKcPFb5cVEnwkgzkPP86Jrphyniwyczus2M1yoUQ0dKQDTKjN3DMk386PYmkXVlfZI9mtJmtu1cr-ruWpzDZiecTWnkv6G5cO4a1J_HQQ1DMnzzELhVIDQtO0h-VryqaiOFO3mm04cdAycEh44ppozsUFqXhLcqiKsU1Os_tjaOPWM_0U_YWaDyuSxWk/s1920/image_2023-05-08_13-13-41.png</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgkxVtw28d30PeSa9AD5UxQj7VXX8rPbYOP3LaK8vv91tv5Hdaik32KoErhQ9aBWUsdQ6Vkd5tySslCw6FABbsnvOQ9CouNFVP3IDOr5qiXLUPPJBT1Gm0JR_cge3QM-22sq4TGGRsUJJ9eMl1fczeStewvPQEOT6lOjqfzQLoVlhiMRqAMUwyb4M78zK8/s811/Screenshot%202024-07-27%20091712.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-01 16:25:32</t>
+          <t>3D printed chess piece</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wind pump in Creo Parametric 8.0</t>
+          <t>Chess Knight was designed in Creo PTC and 3D printed using Ultimaker 3D printing machine.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fully functional wind pump model in Creo Parametric 8.0 | https://www.youtube.com/watch?v=EGFMEjhhjHw</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://blogger.googleusercontent.com/img/a/AVvXsEiWOJriTzkTukOGDj7c-1K3Bl14ncoXz0kg5oQYkxhgnnQ4RKGzZ_bVxzquKt5GgmIXyt0AXqNruuvTSp5jXbTdyNUGEd-9sVjVmvlPqaj_UBU8iaMAFFn0lQzi0eCeqQaLH2Fn37XR6uqC-avTC98Z80Jv_DBKEKQCohgGf7CWnUzUL7SZwdzNB7zlLgc</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEif9lkVFHyVvkJSZMLC_wdVPHJ3ddJNvmmfDGEYhr7oYxKwwl9zC_5ZsCVDcrZ8wnYYvKkfWwToTkKyBVxUoerft6EvDSFB-PbelxZr5AGXFllx7JSzrJ2kHECap3gR7cFDXXGclk8wsjdlRW4d1TrO9xiSOk2lpK2NS5S01-ZoEbkktV7h8jIcwEOdQe4/s1816/20230530_171758.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-01 16:26:32</t>
+          <t>Floor Plan in AutoCAD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>I drew the floor plan of my flat 🌱🪴</t>
+          <t>A single floor with the size 4x4m was designed in AutoCAD.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The doors can be switched to left/right hand sides accordingly. It's cool, isn't it?</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgkxVtw28d30PeSa9AD5UxQj7VXX8rPbYOP3LaK8vv91tv5Hdaik32KoErhQ9aBWUsdQ6Vkd5tySslCw6FABbsnvOQ9CouNFVP3IDOr5qiXLUPPJBT1Gm0JR_cge3QM-22sq4TGGRsUJJ9eMl1fczeStewvPQEOT6lOjqfzQLoVlhiMRqAMUwyb4M78zK8/s811/Screenshot%202024-07-27%20091712.png</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjUXCyEnubK5YAoi3afor-qm2pzC6y3PEGxG9nuk8Fl_AAIEMLX4n_nS6CnX0Ae1pSCatKgYH_lYUorR_FphZy02f6UfoGg9Kg__tQRe8WNhBGFQZqzP9iPnj6eo7OaGHCz8smlICJ4FKONt_N6WO2xsqgPQmLZ0HAgJdIN6br9iUUb9XhTyw6LwoK0ELc/s704/autocad.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-01 16:27:32</t>
+          <t>Chess Game | Offline</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chess Game | Offline</t>
+          <t>Finally completed chess game to play locally. Try this out here: https://uzChess.vercel.app</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>Finally completed chess game to play locally. Try this out here: https://uzChess.vercel.app</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>https://blogger.googleusercontent.com/img/a/AVvXsEhBKl54c5hfCPv11-NQ9vAH6bt5CYqbTBKmIWCypW_2evRKtDGLNksCEGVYtvBoqCUK4oUMQHo0PKd89jOawDj5A7RE55HKjhbDXgm_UqQjHi8pDTHRc6NpIV6-UfrQRuT8Z4apXFa2rwipiAauVzuWzoXqurpBGmJwh4eN8pPLvmTcUem_9Bo6A0Ncdlo</t>
         </is>
@@ -621,20 +581,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-01 16:28:32</t>
+          <t>Hangul Certificate Test (Online)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Get Your Hangul Certificate </t>
+          <t>I created a quiz of testing your Hangul knowledge. And in the end according to your result you can get a personal certificate like this. Give it a try! You will love it! | https://jasurlive.github.io/Hangul/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>I created a quiz of testing your Hangul knowledge. And in the end according to your result you can get a personal certificate like this. Give it a try! You will love it! | https://jasurlive.github.io/Hangul/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg9pfYEGzss_4CrwSN1gbKLk0hoCjecxoYkaLnXdVai8gnaISXQxkzM4U0xW0pSBehknrQ-Gjxyk6a51VCjCWTkbKebZC3Ss-ZCm3yg0y_N1chEsOd9b2uaU6tBcRx5cbjdo3i1KM9v287VScjqSXneK-7dYHr-G9tuIv5THD46l46N_6aM372kJoUn5Lc/s1674/hangul.png</t>
         </is>
@@ -643,20 +598,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-01 17:45:28</t>
+          <t>IELTS Preparation Tool</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>New CD-IELTS Prep Tool</t>
+          <t>I've been actively working on this new design and features. Now users can switch between sections easily while doing the task. Also Online Answer sheet has been improved. New feedback section for further enhancements of the page in the future. | https://IELTSLive.vercel.app</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>I've been actively working on this new design and features. Now users can switch between sections easily while doing the task. Also Online Answer sheet has been improved. New feedback section for further enhancements of the page in the future. | https://IELTSLive.vercel.app</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>https://blogger.googleusercontent.com/img/a/AVvXsEi6gW6soQyIjjdg0qIC5jyq4FihbOHHfol_y2jMHx5ZnBV_mh_GGxf-TPpqejYE-v2nGLw_BMEtzkhXEI2M_Tj5_MUcUUoV3F4_bKa4BSwOZ3cDk6PCFellz6_i-DoTGTLjrdnf6PDwTZ72vNCNyNWR7fbjwAzGYUG5YDifiGobf1bBMrc2MZbOzbxwvy20</t>
         </is>
@@ -665,20 +615,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-01 17:50:28</t>
+          <t>Clone of YouTube</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DJ's YouTube</t>
+          <t>Add your favorite songs from youtube and listen to them all in a single place. | https://playlistgo.vercel.app</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>Add your favorite songs from youtube and listen to them all in a single place. | https://playlistgo.vercel.app</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>https://blogger.googleusercontent.com/img/a/AVvXsEhRneIHityZCfdxYN2EabHWzPEHpiqWFw9UFIPEzeBZNwjGyDQK-M4bQ2ZMCA8SdgZ_k1UYS-eKWhrU3uF_V87SKRyqE7Fi-TCW11UoEfGRvH-zfygoCGuV5hCOMyMA9Ty-Xzj9AjW5C7_B255wIj_ZSHP52H9ExRvatwOquMS-B99GUUv7_0x5k9TJ8p8</t>
         </is>
@@ -687,20 +632,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-22 17:34:06</t>
+          <t>POS App for a local market in Daejeon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POS App for a local market in Daejeon</t>
+          <t>Point Of Sale (POS) app for the local store. Inventory control, calculations of income and outcome. Works with any inventory. The excel sheet needs to be modified accordingly before using it.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>Point Of Sale (POS) app for the local store. Inventory control, calculations of income and outcome. Works with any inventory. The excel sheet needs to be modified accordingly before using it.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjA1FzCHoSKmitLjioCBqb4eMmq3MQAFdEnUhzNt5q6WthEYhnTavPmURhhQFcGI46EKgr9SokoE00hfF87GYdCmjUk3YZGgBMO6HW4V8t_tpgg2UHF0rZnVl8Df15AXWG7kZbBLCBQvlwbYBDHhZ3tPJDBGAWmwyVcI-UzfstOXxwSAb2UnIaet9xpYUQ/s1917/POS.png</t>
         </is>
